--- a/data/inputs/Asset Data.xlsx
+++ b/data/inputs/Asset Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kpmgaust-my.sharepoint.com/personal/gtreseder_kpmg_com_au/Documents/Documents/3. Client/Essential Energy/Probability of Failure Model/pof/data/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B5A6F48-9BCD-4D84-85CF-8701C869FC32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{2B5A6F48-9BCD-4D84-85CF-8701C869FC32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A2EC1EE-A77D-4D3D-9A70-F0CAA9699BDF}"/>
   <bookViews>
-    <workbookView xWindow="-525" yWindow="2205" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,18 +143,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,15 +184,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
@@ -482,10 +507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C61F48-5992-4EEE-A875-924F47F71C18}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,13 +594,13 @@
       <c r="F4">
         <v>125</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -595,13 +620,13 @@
       <c r="F5">
         <v>125</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -621,13 +646,13 @@
       <c r="F6">
         <v>120</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -647,15 +672,29 @@
       <c r="F7">
         <v>120</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12341325</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44551</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4">
+        <v>650</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -887,18 +926,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,26 +960,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06AD5716-7AF6-40F3-9CA6-40CD164BDDE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f509038c-36be-46c1-b5a7-8ffb9a843829"/>
+    <ds:schemaRef ds:uri="f2f8f7d1-4c8b-4940-96d8-7956d77e7075"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48BD8BE-05E4-4B59-A3FF-CEAC95071BD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06AD5716-7AF6-40F3-9CA6-40CD164BDDE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f509038c-36be-46c1-b5a7-8ffb9a843829"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f2f8f7d1-4c8b-4940-96d8-7956d77e7075"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>